--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>Data1</t>
   </si>
@@ -214,15 +214,6 @@
     <t>Yoga_Therapy</t>
   </si>
   <si>
-    <t>Personal Yoga General</t>
-  </si>
-  <si>
-    <t>Yoga Service Class</t>
-  </si>
-  <si>
-    <t>Yoga Therapy Home</t>
-  </si>
-  <si>
     <t>4+ Years</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
     <t>DescribeYourself</t>
   </si>
   <si>
-    <t>Retreat Service</t>
-  </si>
-  <si>
     <t>Retreat based service</t>
   </si>
   <si>
@@ -277,16 +265,79 @@
     <t>Januvasti</t>
   </si>
   <si>
-    <t>Abhyanga service</t>
-  </si>
-  <si>
     <t>1+ years</t>
   </si>
   <si>
-    <t>Janu Vasti service</t>
+    <t>admin@gmail.com</t>
   </si>
   <si>
-    <t>Trackaccount2@yopmail.com</t>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>levelofExpertise</t>
+  </si>
+  <si>
+    <t>Test Yoga Service Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Personal Yoga General </t>
+  </si>
+  <si>
+    <t>TestYoga Therapy Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Retreat Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Abhyanga service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Janu Vasti service</t>
+  </si>
+  <si>
+    <t>PackageName</t>
+  </si>
+  <si>
+    <t>PackageFeature</t>
+  </si>
+  <si>
+    <t>OnePersonPrice</t>
+  </si>
+  <si>
+    <t>Test package</t>
+  </si>
+  <si>
+    <t>Test package features</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Trackaccount7@yopmail.com</t>
+  </si>
+  <si>
+    <t>AgendaActivity</t>
+  </si>
+  <si>
+    <t>AgendaWhere</t>
+  </si>
+  <si>
+    <t>Retreat Activity</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Retreat Second Service</t>
+  </si>
+  <si>
+    <t>Second_RetreatService</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1150,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1274,6 +1325,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2169,10 +2223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XFD23"/>
+  <dimension ref="A1:XFD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2304,7 +2358,7 @@
     </row>
     <row r="2" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -2388,7 +2442,7 @@
     </row>
     <row r="4" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>44</v>
@@ -2423,11 +2477,11 @@
     </row>
     <row r="5" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
-        <v>44</v>
+      <c r="B5" s="47" t="s">
+        <v>82</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>45</v>
+      <c r="C5" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="E5" s="50"/>
       <c r="G5" s="50"/>
@@ -2490,9 +2544,9 @@
     <row r="7" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="47" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="24"/>
@@ -2533,7 +2587,7 @@
       <c r="D8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="21"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -18917,7 +18971,7 @@
     <row r="9" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>47</v>
@@ -18925,7 +18979,7 @@
       <c r="D9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="25"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -18965,7 +19019,9 @@
       <c r="E10" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="G10" s="42"/>
       <c r="H10" s="39"/>
       <c r="I10" s="42"/>
@@ -18991,7 +19047,7 @@
     <row r="11" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="34"/>
       <c r="B11" s="24" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>49</v>
@@ -19002,7 +19058,9 @@
       <c r="E11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="G11" s="43"/>
       <c r="H11" s="45"/>
       <c r="I11" s="44"/>
@@ -19038,7 +19096,9 @@
       <c r="D12" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="9"/>
@@ -19063,7 +19123,7 @@
     <row r="13" spans="1:16384" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C13" s="50" t="s">
         <v>53</v>
@@ -19071,7 +19131,9 @@
       <c r="D13" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
@@ -19108,7 +19170,9 @@
       <c r="D14" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="9"/>
@@ -19133,15 +19197,17 @@
     <row r="15" spans="1:16384" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="23"/>
       <c r="B15" s="24" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
@@ -19167,22 +19233,35 @@
     </row>
     <row r="16" spans="1:16384" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>73</v>
+      <c r="E16" s="38" t="s">
+        <v>91</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>74</v>
+      <c r="F16" s="36" t="s">
+        <v>92</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>75</v>
+      <c r="G16" s="36" t="s">
+        <v>93</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="9"/>
-      <c r="J16" s="28"/>
+      <c r="H16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -19203,20 +19282,32 @@
     <row r="17" spans="1:27" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="51"/>
       <c r="B17" s="52" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
+      <c r="E17" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>103</v>
+      </c>
       <c r="K17" s="52"/>
       <c r="L17" s="52"/>
       <c r="M17" s="52"/>
@@ -19237,7 +19328,7 @@
     </row>
     <row r="18" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>39</v>
@@ -19275,7 +19366,7 @@
     <row r="19" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>47</v>
@@ -19309,10 +19400,10 @@
     </row>
     <row r="20" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="54" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C20" s="56" t="s">
         <v>62</v>
@@ -19347,10 +19438,10 @@
     <row r="21" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="51"/>
       <c r="B21" s="52" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>54</v>
@@ -19381,10 +19472,10 @@
     </row>
     <row r="22" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="54" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C22" s="56" t="s">
         <v>62</v>
@@ -19419,10 +19510,10 @@
     <row r="23" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="23"/>
       <c r="B23" s="24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D23" s="60" t="s">
         <v>54</v>
@@ -19451,18 +19542,120 @@
       <c r="Z23" s="24"/>
       <c r="AA23" s="24"/>
     </row>
+    <row r="24" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A24" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+    </row>
+    <row r="25" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 F11 E15">
+      <formula1>"Not certified,1+ years,3+ years,15+ years"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="G3" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="170">
   <si>
     <t>Data1</t>
   </si>
@@ -163,9 +163,6 @@
     <t>600100</t>
   </si>
   <si>
-    <t>1/22 amman kovil street, santhosapuram</t>
-  </si>
-  <si>
     <t>ZipCode</t>
   </si>
   <si>
@@ -253,13 +250,7 @@
     <t xml:space="preserve">Test Ayurveda Name </t>
   </si>
   <si>
-    <t>abhyanga_Service</t>
-  </si>
-  <si>
     <t>Abhyanga</t>
-  </si>
-  <si>
-    <t>januvasti_Service</t>
   </si>
   <si>
     <t>Januvasti</t>
@@ -284,9 +275,6 @@
   </si>
   <si>
     <t>TestYoga Therapy Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test Retreat Service</t>
   </si>
   <si>
     <t xml:space="preserve"> Test Abhyanga service</t>
@@ -316,12 +304,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>Trackaccount7@yopmail.com</t>
-  </si>
-  <si>
     <t>AgendaActivity</t>
   </si>
   <si>
@@ -339,12 +321,222 @@
   <si>
     <t>Second_RetreatService</t>
   </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Urdvartana_Service</t>
+  </si>
+  <si>
+    <t>Januvasti_Service</t>
+  </si>
+  <si>
+    <t>Abhyanga_Service</t>
+  </si>
+  <si>
+    <t>Urdvartana</t>
+  </si>
+  <si>
+    <t>Test Urdvartana Service</t>
+  </si>
+  <si>
+    <t>Certified</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>First_Customer</t>
+  </si>
+  <si>
+    <t>PaymentCardDetails</t>
+  </si>
+  <si>
+    <t>CardName</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>EnterMonth</t>
+  </si>
+  <si>
+    <t>EnterYear</t>
+  </si>
+  <si>
+    <t>Concert Care</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>EnterCVC</t>
+  </si>
+  <si>
+    <t>SavedCardName</t>
+  </si>
+  <si>
+    <t>Concert Visa</t>
+  </si>
+  <si>
+    <t>testPurpose</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>DurationService</t>
+  </si>
+  <si>
+    <t>9-30-PM</t>
+  </si>
+  <si>
+    <t>1/22, Amman Kovil St, Santhosapuram, Medavakkam</t>
+  </si>
+  <si>
+    <t>durationservice</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>10-00-PM</t>
+  </si>
+  <si>
+    <t>7-30-PM</t>
+  </si>
+  <si>
+    <t>8-30-PM</t>
+  </si>
+  <si>
+    <t>9-00-PM</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>MaximumNumber</t>
+  </si>
+  <si>
+    <t>PeopleNumber</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HealerLocation</t>
+  </si>
+  <si>
+    <t>4242424242424242</t>
+  </si>
+  <si>
+    <t>ServiceName</t>
+  </si>
+  <si>
+    <t>Check Yoga Class Service</t>
+  </si>
+  <si>
+    <t>Check Personal Yoga Service</t>
+  </si>
+  <si>
+    <t>Check Yoga Therapy flow</t>
+  </si>
+  <si>
+    <t>Check Abhyanga Service flow</t>
+  </si>
+  <si>
+    <t>Check Januvasti Service Flow</t>
+  </si>
+  <si>
+    <t>Check Urdvartana Service flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Retreat Service one</t>
+  </si>
+  <si>
+    <t>Mandaveli St, Thandurai, Avadi, Tamil Nadu 600072, India</t>
+  </si>
+  <si>
+    <t>600072</t>
+  </si>
+  <si>
+    <t>YogaNotes</t>
+  </si>
+  <si>
+    <t>1, Amman Kovil St, Santhosapuram, Medavakkam, Chennai, Tamil Nadu 600100, India</t>
+  </si>
+  <si>
+    <t>Second_Customer</t>
+  </si>
+  <si>
+    <t>AbhyangaNotes</t>
+  </si>
+  <si>
+    <t>UrdvartanaNotes</t>
+  </si>
+  <si>
+    <t>JanuvastiNotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Abhyanga </t>
+  </si>
+  <si>
+    <t>Test Urdvartna notes</t>
+  </si>
+  <si>
+    <t>Test januvasti Notes</t>
+  </si>
+  <si>
+    <t>Guestname</t>
+  </si>
+  <si>
+    <t>Name Guest Verification</t>
+  </si>
+  <si>
+    <t>First_Cancellation</t>
+  </si>
+  <si>
+    <t>DescribeSituation</t>
+  </si>
+  <si>
+    <t>HealerEmailId</t>
+  </si>
+  <si>
+    <t>HealerPassword</t>
+  </si>
+  <si>
+    <t>Test Purpose Describe Situation</t>
+  </si>
+  <si>
+    <t>Second_Cancellation</t>
+  </si>
+  <si>
+    <t>trackcustomer5@yopmail.com</t>
+  </si>
+  <si>
+    <t>trackcustomer6@yopmail.com</t>
+  </si>
+  <si>
+    <t>trackaccount16@yopmail.com</t>
+  </si>
+  <si>
+    <t>8-00-PM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,13 +719,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -744,7 +929,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1032,21 +1217,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -1095,6 +1265,54 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1150,7 +1368,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1257,9 +1475,6 @@
     <xf numFmtId="49" fontId="23" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1269,28 +1484,16 @@
     <xf numFmtId="49" fontId="21" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="36" borderId="13" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="36" borderId="13" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,34 +1502,97 @@
     <xf numFmtId="49" fontId="0" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="36" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="23" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="36" borderId="24" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="36" borderId="24" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="35" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="35" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="36" borderId="30" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="36" borderId="30" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2223,10 +2489,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XFD25"/>
+  <dimension ref="A1:XFD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2236,8 +2502,8 @@
     <col min="3" max="3" width="21.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="8" customWidth="1"/>
     <col min="8" max="8" width="23.140625" style="8" customWidth="1"/>
     <col min="9" max="10" width="20.140625" style="8" customWidth="1"/>
     <col min="11" max="11" width="33.28515625" style="8" customWidth="1"/>
@@ -2358,7 +2624,7 @@
     </row>
     <row r="2" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -2399,7 +2665,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:16384" s="26" customFormat="1" ht="45">
+    <row r="3" spans="1:16384" s="26" customFormat="1" ht="30">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
         <v>32</v>
@@ -2410,13 +2676,13 @@
       <c r="D3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="41" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="24"/>
@@ -2442,7 +2708,7 @@
     </row>
     <row r="4" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>44</v>
@@ -2457,13 +2723,13 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
@@ -2477,24 +2743,24 @@
     </row>
     <row r="5" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="23"/>
-      <c r="B5" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
+      <c r="B5" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
@@ -2508,7 +2774,7 @@
     </row>
     <row r="6" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>38</v>
@@ -2543,10 +2809,10 @@
     </row>
     <row r="7" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="23"/>
-      <c r="B7" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="24"/>
@@ -2576,18 +2842,18 @@
     </row>
     <row r="8" spans="1:16384" ht="18.75" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="61"/>
+        <v>47</v>
+      </c>
+      <c r="E8" s="54"/>
       <c r="F8" s="21"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -18971,15 +19237,15 @@
     <row r="9" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="25"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -19004,68 +19270,88 @@
       <c r="AA9" s="24"/>
     </row>
     <row r="10" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="G10" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
+      <c r="H10" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
     </row>
     <row r="11" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="34"/>
-      <c r="B11" s="24" t="s">
-        <v>85</v>
+      <c r="B11" s="44" t="s">
+        <v>140</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="F11" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="43"/>
+      <c r="H11" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>169</v>
+      </c>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
@@ -19085,24 +19371,35 @@
     </row>
     <row r="12" spans="1:16384" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="9"/>
-      <c r="J12" s="28"/>
+      <c r="E12" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>123</v>
+      </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -19122,23 +19419,33 @@
     </row>
     <row r="13" spans="1:16384" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="23"/>
-      <c r="B13" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="50" t="s">
+      <c r="B13" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="G13" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>131</v>
+      </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
@@ -19159,24 +19466,35 @@
     </row>
     <row r="14" spans="1:16384" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="37" t="s">
         <v>62</v>
       </c>
+      <c r="B14" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="D14" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="9"/>
-      <c r="J14" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>123</v>
+      </c>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -19196,23 +19514,33 @@
     </row>
     <row r="15" spans="1:16384" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="23"/>
-      <c r="B15" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="G15" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
@@ -19233,37 +19561,41 @@
     </row>
     <row r="16" spans="1:16384" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="36" t="s">
+      <c r="E16" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
@@ -19280,99 +19612,103 @@
       <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="53" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="52" t="s">
+      <c r="E17" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
+      <c r="J17" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
     </row>
     <row r="18" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
+      <c r="D18" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
     </row>
     <row r="19" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
@@ -19399,131 +19735,179 @@
       <c r="AA19" s="24"/>
     </row>
     <row r="20" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A20" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
+      <c r="A20" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
     </row>
     <row r="21" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
     </row>
     <row r="22" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A22" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
+      <c r="A22" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
     </row>
     <row r="23" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="23"/>
-      <c r="B23" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="B23" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="44" t="s">
+        <v>125</v>
+      </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
@@ -19543,105 +19927,553 @@
       <c r="AA23" s="24"/>
     </row>
     <row r="24" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="D24" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+    </row>
+    <row r="25" spans="1:27" s="55" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A25" s="56"/>
+      <c r="B25" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+    </row>
+    <row r="26" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A26" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="D26" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="E26" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+    </row>
+    <row r="27" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="D27" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="J27" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="57" t="s">
+      <c r="K27" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M27" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="I24" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
     </row>
-    <row r="25" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
+    <row r="28" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A28" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+    </row>
+    <row r="29" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="65"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+    </row>
+    <row r="30" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A30" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+    </row>
+    <row r="31" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+    </row>
+    <row r="32" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A32" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+    </row>
+    <row r="33" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A33" s="24"/>
+      <c r="B33" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="65"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+    </row>
+    <row r="34" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A34" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="58"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+    </row>
+    <row r="35" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="55"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+    </row>
+    <row r="36" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A36" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="58"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+    </row>
+    <row r="37" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="55"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 F11 E15">
-      <formula1>"Not certified,1+ years,3+ years,15+ years"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25 E21 E13 E11 E15 E23">
+      <formula1>"30,45,50,60,90,120,150"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25 H21 G13 E27 G15 H23">
+      <formula1>"Not certified,Certified,Expert,Master"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11">
+      <formula1>"Not Certified,Certified,Expert,Master"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -19651,11 +20483,23 @@
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="C7" r:id="rId5"/>
     <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="B31" r:id="rId7"/>
+    <hyperlink ref="C31" r:id="rId8"/>
+    <hyperlink ref="C33" r:id="rId9"/>
+    <hyperlink ref="C35" r:id="rId10"/>
+    <hyperlink ref="C37" r:id="rId11"/>
+    <hyperlink ref="F35" r:id="rId12"/>
+    <hyperlink ref="F37" r:id="rId13"/>
+    <hyperlink ref="E35" r:id="rId14"/>
+    <hyperlink ref="B33" r:id="rId15"/>
+    <hyperlink ref="B35" r:id="rId16"/>
+    <hyperlink ref="B37" r:id="rId17"/>
+    <hyperlink ref="E37" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="169">
   <si>
     <t>Data1</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>AdminPassword</t>
-  </si>
-  <si>
-    <t>600100</t>
   </si>
   <si>
     <t>ZipCode</t>
@@ -400,9 +397,6 @@
     <t>9-30-PM</t>
   </si>
   <si>
-    <t>1/22, Amman Kovil St, Santhosapuram, Medavakkam</t>
-  </si>
-  <si>
     <t>durationservice</t>
   </si>
   <si>
@@ -410,12 +404,6 @@
   </si>
   <si>
     <t>10-00-PM</t>
-  </si>
-  <si>
-    <t>7-30-PM</t>
-  </si>
-  <si>
-    <t>8-30-PM</t>
   </si>
   <si>
     <t>9-00-PM</t>
@@ -460,19 +448,7 @@
     <t>Check Urdvartana Service flow</t>
   </si>
   <si>
-    <t xml:space="preserve"> Test Retreat Service one</t>
-  </si>
-  <si>
-    <t>Mandaveli St, Thandurai, Avadi, Tamil Nadu 600072, India</t>
-  </si>
-  <si>
-    <t>600072</t>
-  </si>
-  <si>
     <t>YogaNotes</t>
-  </si>
-  <si>
-    <t>1, Amman Kovil St, Santhosapuram, Medavakkam, Chennai, Tamil Nadu 600100, India</t>
   </si>
   <si>
     <t>Second_Customer</t>
@@ -508,28 +484,49 @@
     <t>DescribeSituation</t>
   </si>
   <si>
-    <t>HealerEmailId</t>
-  </si>
-  <si>
-    <t>HealerPassword</t>
-  </si>
-  <si>
     <t>Test Purpose Describe Situation</t>
   </si>
   <si>
     <t>Second_Cancellation</t>
   </si>
   <si>
-    <t>trackcustomer5@yopmail.com</t>
+    <t>PersonalyogaNotes</t>
   </si>
   <si>
-    <t>trackcustomer6@yopmail.com</t>
+    <t>ProvideDetails</t>
   </si>
   <si>
-    <t>trackaccount16@yopmail.com</t>
+    <t>Test Refund</t>
   </si>
   <si>
-    <t>8-00-PM</t>
+    <t>Test Retreat Service one</t>
+  </si>
+  <si>
+    <t>1/7, Saidapet Rd, Sarvamangala Colony, Vadapalani, Chennai, Tamil Nadu 600026, India</t>
+  </si>
+  <si>
+    <t>600026</t>
+  </si>
+  <si>
+    <t>1, Ambattur Red Hills Rd, Bharati Nagar, Ram Nagar, Ambattur, Chennai, Tamil Nadu 600053, India</t>
+  </si>
+  <si>
+    <t>600053</t>
+  </si>
+  <si>
+    <t>4-35-PM</t>
+  </si>
+  <si>
+    <t>5-05-PM</t>
+  </si>
+  <si>
+    <t>accounttrack4@yopmail.com</t>
+  </si>
+  <si>
+    <t>customertrack5@yopmail.com</t>
+  </si>
+  <si>
+    <t>customertrack6@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -929,7 +926,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1315,6 +1312,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1368,7 +1378,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1529,9 +1539,6 @@
     <xf numFmtId="49" fontId="0" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="34" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1574,12 +1581,6 @@
     <xf numFmtId="49" fontId="23" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="34" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1592,7 +1593,25 @@
     <xf numFmtId="49" fontId="22" fillId="36" borderId="30" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="36" borderId="30" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="36" borderId="26" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="36" borderId="24" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2169,7 +2188,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA21" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA25" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="27">
     <tableColumn id="1" name="TestCase Name" dataDxfId="25"/>
     <tableColumn id="2" name="Data1" dataDxfId="24"/>
@@ -2491,8 +2510,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2624,7 +2643,7 @@
     </row>
     <row r="2" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -2708,7 +2727,7 @@
     </row>
     <row r="4" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>44</v>
@@ -2744,10 +2763,10 @@
     <row r="5" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>80</v>
       </c>
       <c r="E5" s="44"/>
       <c r="G5" s="44"/>
@@ -2774,7 +2793,7 @@
     </row>
     <row r="6" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>38</v>
@@ -2810,7 +2829,7 @@
     <row r="7" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>35</v>
@@ -2842,16 +2861,16 @@
     </row>
     <row r="8" spans="1:16384" ht="18.75" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="54"/>
       <c r="F8" s="21"/>
@@ -19237,13 +19256,13 @@
     <row r="9" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="25"/>
@@ -19271,37 +19290,37 @@
     </row>
     <row r="10" spans="1:16384" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>128</v>
+      <c r="H10" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -19323,34 +19342,34 @@
     <row r="11" spans="1:16384" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="34"/>
       <c r="B11" s="44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="F11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>50</v>
-      </c>
       <c r="H11" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
@@ -19371,34 +19390,34 @@
     </row>
     <row r="12" spans="1:16384" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>61</v>
-      </c>
       <c r="E12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -19420,31 +19439,31 @@
     <row r="13" spans="1:16384" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="23"/>
       <c r="B13" s="44" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>53</v>
-      </c>
       <c r="G13" s="44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
@@ -19466,34 +19485,34 @@
     </row>
     <row r="14" spans="1:16384" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="69" t="s">
         <v>123</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>122</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
@@ -19515,31 +19534,31 @@
     <row r="15" spans="1:16384" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="23"/>
       <c r="B15" s="44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>64</v>
-      </c>
       <c r="G15" s="44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
@@ -19561,43 +19580,47 @@
     </row>
     <row r="16" spans="1:16384" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="G16" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="64" t="s">
+      <c r="J16" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="64" t="s">
-        <v>95</v>
-      </c>
       <c r="K16" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
@@ -19614,40 +19637,44 @@
     <row r="17" spans="1:27" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="45"/>
       <c r="B17" s="46" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C17" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="G17" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="63" t="s">
+      <c r="H17" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="63" t="s">
-        <v>97</v>
-      </c>
       <c r="K17" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
+        <v>132</v>
+      </c>
+      <c r="M17" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>106</v>
+      </c>
       <c r="O17" s="46"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
@@ -19664,7 +19691,7 @@
     </row>
     <row r="18" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>39</v>
@@ -19673,7 +19700,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="50"/>
@@ -19702,13 +19729,13 @@
     <row r="19" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
@@ -19736,34 +19763,34 @@
     </row>
     <row r="20" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="59" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="J20" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="51"/>
@@ -19786,31 +19813,31 @@
     <row r="21" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="45"/>
       <c r="B21" s="46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>164</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
@@ -19831,178 +19858,178 @@
       <c r="AA21" s="46"/>
     </row>
     <row r="22" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A22" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="75" t="s">
-        <v>139</v>
+      <c r="A22" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
+        <v>104</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
     </row>
     <row r="23" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="J23" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
     </row>
     <row r="24" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="75" t="s">
-        <v>139</v>
+      <c r="B24" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
+      <c r="F24" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
     </row>
     <row r="25" spans="1:27" s="55" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="55" t="s">
-        <v>145</v>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="C25" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" s="44" t="s">
-        <v>132</v>
+      <c r="I25" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>127</v>
       </c>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
@@ -20024,43 +20051,46 @@
     </row>
     <row r="26" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="58" t="s">
         <v>99</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="M26" s="51" t="s">
-        <v>95</v>
       </c>
       <c r="T26" s="51"/>
       <c r="U26" s="51"/>
@@ -20074,40 +20104,43 @@
     <row r="27" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="23"/>
       <c r="B27" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="53" t="s">
-        <v>73</v>
-      </c>
       <c r="E27" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="65" t="s">
-        <v>108</v>
-      </c>
       <c r="L27" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="M27" s="24" t="s">
-        <v>97</v>
+      <c r="N27" s="52" t="s">
+        <v>100</v>
       </c>
       <c r="T27" s="24"/>
       <c r="U27" s="24"/>
@@ -20120,25 +20153,25 @@
     </row>
     <row r="28" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A28" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="D28" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="E28" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="49" t="s">
         <v>119</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>120</v>
       </c>
       <c r="I28" s="51"/>
       <c r="J28" s="51"/>
@@ -20157,24 +20190,24 @@
     <row r="29" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="55" t="s">
+      <c r="E29" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="F29" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="55" t="s">
-        <v>118</v>
-      </c>
       <c r="G29" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="65"/>
+        <v>120</v>
+      </c>
+      <c r="I29" s="64"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="R29" s="24"/>
@@ -20190,22 +20223,24 @@
     </row>
     <row r="30" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="61" t="s">
-        <v>149</v>
+      <c r="D30" s="60" t="s">
+        <v>142</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="58"/>
+        <v>133</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="57"/>
       <c r="H30" s="49"/>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
@@ -20223,22 +20258,24 @@
     </row>
     <row r="31" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A31" s="24"/>
-      <c r="B31" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="67" t="s">
+      <c r="B31" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="66" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="53"/>
+        <v>121</v>
+      </c>
+      <c r="E31" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>121</v>
+      </c>
       <c r="G31" s="53"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="65"/>
+      <c r="I31" s="64"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="R31" s="24"/>
@@ -20254,28 +20291,28 @@
     </row>
     <row r="32" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A32" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="61" t="s">
-        <v>137</v>
+      <c r="D32" s="60" t="s">
+        <v>133</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>154</v>
+        <v>144</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>146</v>
       </c>
       <c r="H32" s="49" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I32" s="51"/>
       <c r="J32" s="51"/>
@@ -20293,28 +20330,28 @@
     </row>
     <row r="33" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A33" s="24"/>
-      <c r="B33" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="67" t="s">
+      <c r="B33" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="26" t="s">
-        <v>155</v>
-      </c>
       <c r="F33" s="55" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" s="65"/>
+        <v>151</v>
+      </c>
+      <c r="I33" s="64"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="R33" s="24"/>
@@ -20330,24 +20367,21 @@
     </row>
     <row r="34" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A34" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="58"/>
+      <c r="D34" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="59"/>
       <c r="H34" s="49"/>
       <c r="I34" s="51"/>
       <c r="J34" s="51"/>
@@ -20365,24 +20399,21 @@
     </row>
     <row r="35" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A35" s="24"/>
-      <c r="B35" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="67" t="s">
+      <c r="B35" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="66" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="55"/>
+        <v>154</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="79"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="65"/>
+      <c r="I35" s="64"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="R35" s="24"/>
@@ -20398,24 +20429,21 @@
     </row>
     <row r="36" spans="1:27" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A36" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="58"/>
+      <c r="D36" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="59"/>
       <c r="H36" s="49"/>
       <c r="I36" s="51"/>
       <c r="J36" s="51"/>
@@ -20433,24 +20461,21 @@
     </row>
     <row r="37" spans="1:27" s="26" customFormat="1" ht="18.75" customHeight="1">
       <c r="A37" s="24"/>
-      <c r="B37" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="67" t="s">
+      <c r="B37" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="66" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="55"/>
+        <v>154</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="73"/>
       <c r="H37" s="24"/>
-      <c r="I37" s="65"/>
+      <c r="I37" s="64"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="R37" s="24"/>
@@ -20466,10 +20491,10 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25 E21 E13 E11 E15 E23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25 E23 E21 E13 E11 E15">
       <formula1>"30,45,50,60,90,120,150"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25 H21 G13 E27 G15 H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25 N17 H23 H21 G13 E27 G15">
       <formula1>"Not certified,Certified,Expert,Master"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11">
@@ -20488,18 +20513,14 @@
     <hyperlink ref="C33" r:id="rId9"/>
     <hyperlink ref="C35" r:id="rId10"/>
     <hyperlink ref="C37" r:id="rId11"/>
-    <hyperlink ref="F35" r:id="rId12"/>
-    <hyperlink ref="F37" r:id="rId13"/>
-    <hyperlink ref="E35" r:id="rId14"/>
-    <hyperlink ref="B33" r:id="rId15"/>
-    <hyperlink ref="B35" r:id="rId16"/>
-    <hyperlink ref="B37" r:id="rId17"/>
-    <hyperlink ref="E37" r:id="rId18"/>
+    <hyperlink ref="B33" r:id="rId12"/>
+    <hyperlink ref="B35" r:id="rId13"/>
+    <hyperlink ref="B37" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
